--- a/FinTech/HOOD_MODEL.xlsx
+++ b/FinTech/HOOD_MODEL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Models\FinTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32831CAB-C383-4C5C-B393-CB3608D9B7F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A16C73-62A4-475A-86D6-FECFC2C5C6AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
+    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" activeTab="3" xr2:uid="{74C982A1-EE30-4588-AA95-0E58E4E415F0}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -131,7 +131,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="116">
   <si>
     <t>Price</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Tax</t>
   </si>
   <si>
-    <t>Gross Margin</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -310,153 +307,6 @@
     <t>General and Admin</t>
   </si>
   <si>
-    <t>Company</t>
-  </si>
-  <si>
-    <t>Operating Margin</t>
-  </si>
-  <si>
-    <t>P/E (TTM)</t>
-  </si>
-  <si>
-    <t>Forward P/E</t>
-  </si>
-  <si>
-    <t>Price / Sales</t>
-  </si>
-  <si>
-    <t>Ouster (OUST)</t>
-  </si>
-  <si>
-    <t>n/m</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Luminar (LAZR)</t>
-  </si>
-  <si>
-    <t>Hesai (HSAI)</t>
-  </si>
-  <si>
-    <t>Innoviz (INVZ)</t>
-  </si>
-  <si>
-    <t>Aeva (AEVA)</t>
-  </si>
-  <si>
-    <t>Cepton (CPTN)</t>
-  </si>
-  <si>
-    <t>MicroVision (MVIS)</t>
-  </si>
-  <si>
-    <t>Revenue (USD, TTM)</t>
-  </si>
-  <si>
-    <t>Net Income / Diluted EPS</t>
-  </si>
-  <si>
-    <t>EV / EBITDA (TTM)</t>
-  </si>
-  <si>
-    <t>$118 M</t>
-  </si>
-  <si>
-    <t>–$100 M / –$0.43</t>
-  </si>
-  <si>
-    <t>–80.8 %</t>
-  </si>
-  <si>
-    <t>9.34×</t>
-  </si>
-  <si>
-    <t>$73 M</t>
-  </si>
-  <si>
-    <t>–$228 M / –$0.64</t>
-  </si>
-  <si>
-    <t>–33 %</t>
-  </si>
-  <si>
-    <t>–318 %</t>
-  </si>
-  <si>
-    <t>2.5×</t>
-  </si>
-  <si>
-    <t>$311 M</t>
-  </si>
-  <si>
-    <t>–$14 M / –$0.06</t>
-  </si>
-  <si>
-    <t>–4 %</t>
-  </si>
-  <si>
-    <t>68×</t>
-  </si>
-  <si>
-    <t>8.9×</t>
-  </si>
-  <si>
-    <t>$34.6 M</t>
-  </si>
-  <si>
-    <t>–$77 M / –$0.45</t>
-  </si>
-  <si>
-    <t>–240 %</t>
-  </si>
-  <si>
-    <t>7.5×</t>
-  </si>
-  <si>
-    <t>$13.8 M</t>
-  </si>
-  <si>
-    <t>–$301 M / –$5.54</t>
-  </si>
-  <si>
-    <t>–29 %</t>
-  </si>
-  <si>
-    <t>–990 %</t>
-  </si>
-  <si>
-    <t>54×</t>
-  </si>
-  <si>
-    <t>$17.9 M</t>
-  </si>
-  <si>
-    <t>–$26 M / –$1.63</t>
-  </si>
-  <si>
-    <t>–178 %</t>
-  </si>
-  <si>
-    <t>2.9×</t>
-  </si>
-  <si>
-    <t>$4.3 M</t>
-  </si>
-  <si>
-    <t>–$99 M / –$0.45</t>
-  </si>
-  <si>
-    <t>–57 %</t>
-  </si>
-  <si>
-    <t>–1 500 %</t>
-  </si>
-  <si>
-    <t>56×</t>
-  </si>
-  <si>
     <t>HOOD - Robinhood Inc.</t>
   </si>
   <si>
@@ -626,6 +476,9 @@
   </si>
   <si>
     <t>High Interest Rate Environment</t>
+  </si>
+  <si>
+    <t>No Major updates as of 11/20/2025</t>
   </si>
 </sst>
 </file>
@@ -635,13 +488,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy;@"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -833,64 +692,64 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="6" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1230,7 +1089,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1248,7 +1107,7 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1261,10 +1120,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="1">
-        <v>114.63</v>
+        <v>119.35</v>
       </c>
       <c r="C4" s="2">
-        <v>45877</v>
+        <v>45981</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1272,10 +1131,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="1">
-        <v>885</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>900</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -1284,7 +1143,7 @@
       </c>
       <c r="B6" s="1">
         <f xml:space="preserve"> B4 * B5</f>
-        <v>101447.55</v>
+        <v>107415</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -1292,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="B7" s="1">
-        <v>1926</v>
+        <v>1940</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -1300,13 +1159,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="1">
-        <v>1301</v>
+        <v>1617</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E8" s="1">
-        <v>21.67</v>
+        <v>21.58</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1315,71 +1174,71 @@
       </c>
       <c r="B9" s="1">
         <f>B6 - B7 + B8</f>
-        <v>100822.55</v>
+        <v>107092</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
       <c r="E9" s="1">
-        <v>9.09</v>
+        <v>9.5299999999999994</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
-        <v>28.43</v>
+        <v>25.99</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
-        <v>12.25</v>
+        <v>12.85</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
-        <v>61.18</v>
+        <v>94.2</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>27.46</v>
+        <v>25.43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
-        <v>60.63</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
-        <v>62.3</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B18" s="1">
         <v>1.85</v>
@@ -1395,11 +1254,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96E38C8F-3B6A-4584-925C-61BD108C4B76}">
   <dimension ref="A1:AD106"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="S3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="U18" sqref="U18"/>
+      <selection pane="bottomRight" activeCell="Y25" sqref="Y25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1433,22 +1292,22 @@
       <c r="B2" s="26"/>
       <c r="C2" s="26"/>
       <c r="D2" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="26" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="F2" s="26" t="s">
         <v>54</v>
       </c>
-      <c r="F2" s="26" t="s">
-        <v>55</v>
-      </c>
       <c r="G2" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H2" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="I2" s="26" t="s">
         <v>44</v>
-      </c>
-      <c r="I2" s="26" t="s">
-        <v>45</v>
       </c>
       <c r="J2" s="26" t="s">
         <v>13</v>
@@ -1496,203 +1355,212 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37"/>
-      <c r="B3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37">
+    <row r="3" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35"/>
+      <c r="B3" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35">
         <v>420</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="35">
         <v>451</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <v>267</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <v>264</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="35">
         <v>218</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="35">
         <v>202</v>
       </c>
-      <c r="J3" s="37">
+      <c r="J3" s="35">
         <v>208</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="35">
         <v>186</v>
       </c>
-      <c r="L3" s="37">
+      <c r="L3" s="35">
         <v>207</v>
       </c>
-      <c r="M3" s="38">
+      <c r="M3" s="36">
         <v>193</v>
       </c>
-      <c r="N3" s="38">
+      <c r="N3" s="36">
         <v>185</v>
       </c>
-      <c r="O3" s="38">
+      <c r="O3" s="36">
         <v>200</v>
       </c>
-      <c r="P3" s="38">
+      <c r="P3" s="36">
         <v>329</v>
       </c>
-      <c r="Q3" s="38">
+      <c r="Q3" s="36">
         <v>327</v>
       </c>
-      <c r="R3" s="38">
+      <c r="R3" s="36">
         <v>319</v>
       </c>
-      <c r="S3" s="38">
+      <c r="S3" s="36">
         <v>672</v>
       </c>
-      <c r="T3" s="38">
+      <c r="T3" s="36">
         <v>583</v>
       </c>
-      <c r="U3" s="38">
+      <c r="U3" s="36">
         <v>539</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="38">
+      <c r="V3" s="36">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="36">
         <v>62</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="36">
         <v>68</v>
       </c>
-      <c r="F4" s="38">
+      <c r="F4" s="36">
         <v>63</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="36">
         <v>63</v>
       </c>
-      <c r="H4" s="38">
+      <c r="H4" s="36">
         <v>55</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="36">
         <v>74</v>
       </c>
-      <c r="J4" s="38">
+      <c r="J4" s="36">
         <v>128</v>
       </c>
-      <c r="K4" s="38">
+      <c r="K4" s="36">
         <v>167</v>
       </c>
-      <c r="L4" s="38">
+      <c r="L4" s="36">
         <v>208</v>
       </c>
-      <c r="M4" s="38">
+      <c r="M4" s="36">
         <v>234</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4" s="36">
         <v>251</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4" s="36">
         <v>236</v>
       </c>
-      <c r="P4" s="38">
+      <c r="P4" s="36">
         <v>254</v>
       </c>
-      <c r="Q4" s="38">
+      <c r="Q4" s="36">
         <v>285</v>
       </c>
-      <c r="R4" s="38">
+      <c r="R4" s="36">
         <v>274</v>
       </c>
-      <c r="S4" s="38">
+      <c r="S4" s="36">
         <v>296</v>
       </c>
-      <c r="T4" s="38">
+      <c r="T4" s="36">
         <v>290</v>
       </c>
-      <c r="U4" s="38">
+      <c r="U4" s="36">
         <v>357</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" s="38" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="38">
+      <c r="V4" s="36">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="36">
         <v>40</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="36">
         <v>46</v>
       </c>
-      <c r="F5" s="38">
+      <c r="F5" s="36">
         <v>35</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="36">
         <v>36</v>
       </c>
-      <c r="H5" s="38">
+      <c r="H5" s="36">
         <v>26</v>
       </c>
-      <c r="I5" s="38">
-        <v>42</v>
-      </c>
-      <c r="J5" s="38">
+      <c r="I5" s="36">
+        <v>42</v>
+      </c>
+      <c r="J5" s="36">
         <v>25</v>
       </c>
-      <c r="K5" s="38">
+      <c r="K5" s="36">
         <v>27</v>
       </c>
-      <c r="L5" s="38">
+      <c r="L5" s="36">
         <v>26</v>
       </c>
-      <c r="M5" s="38">
+      <c r="M5" s="36">
         <v>59</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5" s="36">
         <v>31</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5" s="36">
         <v>35</v>
       </c>
-      <c r="P5" s="38">
+      <c r="P5" s="36">
         <v>35</v>
       </c>
-      <c r="Q5" s="38">
+      <c r="Q5" s="36">
         <v>70</v>
       </c>
-      <c r="R5" s="38">
+      <c r="R5" s="36">
         <v>44</v>
       </c>
-      <c r="S5" s="38">
+      <c r="S5" s="36">
         <v>46</v>
       </c>
-      <c r="T5" s="38">
+      <c r="T5" s="36">
         <v>54</v>
       </c>
-      <c r="U5" s="38">
+      <c r="U5" s="36">
         <v>93</v>
+      </c>
+      <c r="V5" s="36">
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I6" s="1">
         <v>5200</v>
@@ -1733,40 +1601,43 @@
       <c r="U6" s="1">
         <v>13800</v>
       </c>
+      <c r="V6" s="1">
+        <v>20400</v>
+      </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
-        <v>127</v>
+        <v>77</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L7" s="1">
         <v>1.2</v>
       </c>
       <c r="M7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N7" s="1">
         <v>1.3</v>
@@ -1792,105 +1663,111 @@
       <c r="U7" s="1">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="39" t="s">
-        <v>147</v>
+      <c r="V7" s="1">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="39">
+        <v>42</v>
+      </c>
+      <c r="E8" s="1">
         <v>22.5</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="1">
         <v>22.4</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="1">
         <v>22.7</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="1">
         <v>22.8</v>
       </c>
-      <c r="I8" s="39">
+      <c r="I8" s="1">
         <v>22.9</v>
       </c>
-      <c r="J8" s="39">
+      <c r="J8" s="1">
         <v>22.9</v>
       </c>
-      <c r="K8" s="39">
+      <c r="K8" s="1">
         <v>23</v>
       </c>
-      <c r="L8" s="39">
+      <c r="L8" s="1">
         <v>23.1</v>
       </c>
-      <c r="M8" s="39">
+      <c r="M8" s="1">
         <v>23.2</v>
       </c>
-      <c r="N8" s="39">
+      <c r="N8" s="1">
         <v>23.3</v>
       </c>
-      <c r="O8" s="39">
+      <c r="O8" s="1">
         <v>23.4</v>
       </c>
-      <c r="P8" s="39">
+      <c r="P8" s="1">
         <v>23.9</v>
       </c>
-      <c r="Q8" s="39">
+      <c r="Q8" s="1">
         <v>24.2</v>
       </c>
-      <c r="R8" s="39">
+      <c r="R8" s="1">
         <v>24.3</v>
       </c>
-      <c r="S8" s="39">
+      <c r="S8" s="1">
         <v>25.2</v>
       </c>
-      <c r="T8" s="39">
+      <c r="T8" s="1">
         <v>25.8</v>
       </c>
-      <c r="U8" s="39">
+      <c r="U8" s="1">
         <v>26.5</v>
+      </c>
+      <c r="V8" s="1">
+        <v>26.8</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P9" s="1">
         <v>24.4</v>
@@ -1910,13 +1787,16 @@
       <c r="U9" s="1">
         <v>27.4</v>
       </c>
+      <c r="V9" s="1">
+        <v>27.9</v>
+      </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1">
         <v>102000</v>
@@ -1968,6 +1848,9 @@
       </c>
       <c r="U10" s="1">
         <v>279000</v>
+      </c>
+      <c r="V10" s="1">
+        <v>333000</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.2">
@@ -1991,7 +1874,7 @@
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3">
-        <f t="shared" ref="D12:U12" si="0">SUM(D3:D5)</f>
+        <f t="shared" ref="D12:V12" si="0">SUM(D3:D5)</f>
         <v>522</v>
       </c>
       <c r="E12" s="3">
@@ -2062,13 +1945,16 @@
         <f t="shared" si="0"/>
         <v>989</v>
       </c>
-      <c r="V12" s="4"/>
+      <c r="V12" s="3">
+        <f t="shared" si="0"/>
+        <v>1274</v>
+      </c>
       <c r="W12" s="4"/>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="27"/>
       <c r="B13" s="27" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="17">
@@ -2125,11 +2011,14 @@
       <c r="U13" s="17">
         <v>48</v>
       </c>
+      <c r="V13" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="27"/>
       <c r="B14" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C14" s="27"/>
       <c r="D14" s="27">
@@ -2186,11 +2075,14 @@
       <c r="U14" s="28">
         <v>214</v>
       </c>
+      <c r="V14" s="1">
+        <v>237</v>
+      </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="27"/>
       <c r="B15" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C15" s="27"/>
       <c r="D15" s="27">
@@ -2247,11 +2139,14 @@
       <c r="U15" s="28">
         <v>29</v>
       </c>
+      <c r="V15" s="1">
+        <v>33</v>
+      </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="27"/>
       <c r="B16" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C16" s="27"/>
       <c r="D16" s="27">
@@ -2307,12 +2202,15 @@
       </c>
       <c r="U16" s="28">
         <v>28</v>
+      </c>
+      <c r="V16" s="1">
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="27"/>
       <c r="B17" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="27">
@@ -2369,11 +2267,14 @@
       <c r="U17" s="28">
         <v>99</v>
       </c>
+      <c r="V17" s="1">
+        <v>102</v>
+      </c>
     </row>
     <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="27"/>
       <c r="B18" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="27"/>
       <c r="D18" s="27">
@@ -2429,6 +2330,9 @@
       </c>
       <c r="U18" s="28">
         <v>132</v>
+      </c>
+      <c r="V18" s="1">
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:26" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
@@ -2510,7 +2414,7 @@
       </c>
       <c r="V19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>635</v>
       </c>
       <c r="W19" s="4">
         <f t="shared" si="1"/>
@@ -2583,6 +2487,9 @@
       <c r="U20" s="1">
         <v>442</v>
       </c>
+      <c r="V20" s="1">
+        <v>634</v>
+      </c>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -2642,6 +2549,9 @@
       <c r="U21" s="1">
         <v>56</v>
       </c>
+      <c r="V21" s="1">
+        <v>78</v>
+      </c>
     </row>
     <row r="22" spans="1:26" s="5" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
@@ -2721,7 +2631,7 @@
       </c>
       <c r="V22" s="5">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="W22" s="5">
         <f t="shared" si="4"/>
@@ -2795,6 +2705,9 @@
       <c r="U23" s="1">
         <v>0.44</v>
       </c>
+      <c r="V23" s="1">
+        <v>0.63</v>
+      </c>
     </row>
     <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
@@ -2854,80 +2767,86 @@
       <c r="U24" s="1">
         <v>0.42</v>
       </c>
+      <c r="V24" s="1">
+        <v>0.61</v>
+      </c>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H26" s="6">
-        <f>(H12/D12) - 1</f>
+        <f t="shared" ref="H26:V26" si="5">(H12/D12) - 1</f>
         <v>-0.42720306513409967</v>
       </c>
       <c r="I26" s="6">
-        <f>(I12/E12) - 1</f>
+        <f t="shared" si="5"/>
         <v>-0.43716814159292039</v>
       </c>
       <c r="J26" s="6">
-        <f>(J12/F12) - 1</f>
+        <f t="shared" si="5"/>
         <v>-1.0958904109588996E-2</v>
       </c>
       <c r="K26" s="6">
-        <f>(K12/G12) - 1</f>
+        <f t="shared" si="5"/>
         <v>4.6831955922864932E-2</v>
       </c>
       <c r="L26" s="6">
-        <f>(L12/H12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.47491638795986613</v>
       </c>
       <c r="M26" s="6">
-        <f>(M12/I12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.52830188679245293</v>
       </c>
       <c r="N26" s="6">
-        <f>(N12/J12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.29362880886426601</v>
       </c>
       <c r="O26" s="6">
-        <f>(O12/K12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.23947368421052628</v>
       </c>
       <c r="P26" s="6">
-        <f>(P12/L12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.40136054421768708</v>
       </c>
       <c r="Q26" s="6">
-        <f>(Q12/M12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.40329218106995879</v>
       </c>
       <c r="R26" s="6">
-        <f>(R12/N12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.3640256959314776</v>
       </c>
       <c r="S26" s="6">
-        <f>(S12/O12) - 1</f>
+        <f t="shared" si="5"/>
         <v>1.1528662420382165</v>
       </c>
       <c r="T26" s="6">
-        <f>(T12/P12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
       <c r="U26" s="6">
-        <f>(U12/Q12) - 1</f>
+        <f t="shared" si="5"/>
         <v>0.45014662756598245</v>
       </c>
-      <c r="V26" s="6"/>
+      <c r="V26" s="6">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
       <c r="W26" s="6"/>
       <c r="X26" s="6"/>
       <c r="Y26" s="6"/>
@@ -2938,77 +2857,80 @@
         <v>39</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E27" s="6">
-        <f xml:space="preserve"> (E12/D12) - 1</f>
+        <f t="shared" ref="E27:V27" si="6" xml:space="preserve"> (E12/D12) - 1</f>
         <v>8.2375478927203094E-2</v>
       </c>
       <c r="F27" s="6">
-        <f xml:space="preserve"> (F12/E12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-0.35398230088495575</v>
       </c>
       <c r="G27" s="6">
-        <f xml:space="preserve"> (G12/F12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-5.479452054794498E-3</v>
       </c>
       <c r="H27" s="6">
-        <f xml:space="preserve"> (H12/G12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-0.17630853994490359</v>
       </c>
       <c r="I27" s="6">
-        <f xml:space="preserve"> (I12/H12) - 1</f>
+        <f t="shared" si="6"/>
         <v>6.3545150501672198E-2</v>
       </c>
       <c r="J27" s="6">
-        <f xml:space="preserve"> (J12/I12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.1352201257861636</v>
       </c>
       <c r="K27" s="6">
-        <f xml:space="preserve"> (K12/J12) - 1</f>
+        <f t="shared" si="6"/>
         <v>5.2631578947368363E-2</v>
       </c>
       <c r="L27" s="6">
-        <f xml:space="preserve"> (L12/K12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.16052631578947363</v>
       </c>
       <c r="M27" s="6">
-        <f xml:space="preserve"> (M12/L12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.1020408163265305</v>
       </c>
       <c r="N27" s="6">
-        <f xml:space="preserve"> (N12/M12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-3.9094650205761305E-2</v>
       </c>
       <c r="O27" s="6">
-        <f xml:space="preserve"> (O12/N12) - 1</f>
+        <f t="shared" si="6"/>
         <v>8.565310492505418E-3</v>
       </c>
       <c r="P27" s="6">
-        <f xml:space="preserve"> (P12/O12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.31210191082802541</v>
       </c>
       <c r="Q27" s="6">
-        <f xml:space="preserve"> (Q12/P12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.10355987055016191</v>
       </c>
       <c r="R27" s="6">
-        <f xml:space="preserve"> (R12/Q12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-6.5982404692082164E-2</v>
       </c>
       <c r="S27" s="6">
-        <f xml:space="preserve"> (S12/R12) - 1</f>
+        <f t="shared" si="6"/>
         <v>0.59183673469387754</v>
       </c>
       <c r="T27" s="6">
-        <f xml:space="preserve"> (T12/S12) - 1</f>
+        <f t="shared" si="6"/>
         <v>-8.5798816568047331E-2</v>
       </c>
       <c r="U27" s="6">
-        <f xml:space="preserve"> (U12/T12) - 1</f>
+        <f t="shared" si="6"/>
         <v>6.6882416396979449E-2</v>
       </c>
-      <c r="V27" s="6"/>
+      <c r="V27" s="6">
+        <f t="shared" si="6"/>
+        <v>0.28816986855409499</v>
+      </c>
       <c r="W27" s="6"/>
       <c r="X27" s="6"/>
       <c r="Y27" s="6"/>
@@ -3027,77 +2949,80 @@
       <c r="S28" s="7"/>
       <c r="T28" s="6"/>
     </row>
-    <row r="29" spans="1:26" s="39" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="39" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="39">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="1">
         <v>137</v>
       </c>
-      <c r="E29" s="39">
+      <c r="E29" s="1">
         <v>112</v>
       </c>
-      <c r="F29" s="39">
+      <c r="F29" s="1">
         <v>65</v>
       </c>
-      <c r="G29" s="39">
+      <c r="G29" s="1">
         <v>64</v>
       </c>
-      <c r="H29" s="39">
+      <c r="H29" s="1">
         <v>53</v>
       </c>
-      <c r="I29" s="39">
+      <c r="I29" s="1">
         <v>56</v>
       </c>
       <c r="J29" s="9">
         <v>63</v>
       </c>
-      <c r="K29" s="40">
+      <c r="K29" s="37">
         <v>66</v>
       </c>
-      <c r="L29" s="40">
+      <c r="L29" s="37">
         <v>66</v>
       </c>
-      <c r="M29" s="40">
+      <c r="M29" s="37">
         <v>77</v>
       </c>
-      <c r="N29" s="40">
+      <c r="N29" s="37">
         <v>80</v>
       </c>
-      <c r="O29" s="40">
+      <c r="O29" s="37">
         <v>81</v>
       </c>
-      <c r="P29" s="40">
+      <c r="P29" s="37">
         <v>104</v>
       </c>
-      <c r="Q29" s="40">
+      <c r="Q29" s="37">
         <v>113</v>
       </c>
-      <c r="R29" s="40">
+      <c r="R29" s="37">
         <v>105</v>
       </c>
-      <c r="S29" s="40">
+      <c r="S29" s="37">
         <v>164</v>
       </c>
       <c r="T29" s="9">
         <v>145</v>
       </c>
-      <c r="U29" s="39">
+      <c r="U29" s="1">
         <v>151</v>
+      </c>
+      <c r="V29" s="1">
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:26" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="6" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G30" s="6">
         <v>-1.17</v>
@@ -3144,10 +3069,13 @@
       <c r="U30" s="6">
         <v>0.39</v>
       </c>
+      <c r="V30" s="6">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="31" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="9" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D31" s="9">
         <v>-1426</v>
@@ -3200,377 +3128,398 @@
       <c r="U31" s="9">
         <v>471</v>
       </c>
+      <c r="V31" s="9">
+        <v>664</v>
+      </c>
     </row>
     <row r="32" spans="1:26" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="36" t="s">
-        <v>151</v>
-      </c>
-      <c r="D33" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E33" s="36">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="34">
         <v>1.41</v>
       </c>
-      <c r="F33" s="36">
+      <c r="F33" s="34">
         <v>0.32</v>
       </c>
-      <c r="G33" s="36">
+      <c r="G33" s="34">
         <v>0.12</v>
       </c>
-      <c r="H33" s="43">
+      <c r="H33" s="40">
         <v>-0.48</v>
       </c>
-      <c r="I33" s="43">
+      <c r="I33" s="40">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="J33" s="43">
+      <c r="J33" s="40">
         <v>0.03</v>
       </c>
-      <c r="K33" s="43">
+      <c r="K33" s="40">
         <v>-0.11</v>
       </c>
-      <c r="L33" s="43">
+      <c r="L33" s="40">
         <v>0.11</v>
       </c>
-      <c r="M33" s="43">
+      <c r="M33" s="40">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N33" s="43">
+      <c r="N33" s="40">
         <v>-0.11</v>
       </c>
-      <c r="O33" s="36">
+      <c r="O33" s="34">
         <v>0.08</v>
       </c>
-      <c r="P33" s="36">
+      <c r="P33" s="34">
         <v>0.59</v>
       </c>
-      <c r="Q33" s="36">
+      <c r="Q33" s="34">
         <v>0.69</v>
       </c>
-      <c r="R33" s="36">
+      <c r="R33" s="34">
         <v>0.72</v>
       </c>
-      <c r="S33" s="36">
+      <c r="S33" s="34">
         <v>2</v>
       </c>
-      <c r="T33" s="36">
+      <c r="T33" s="34">
         <v>0.77</v>
       </c>
-      <c r="U33" s="36">
+      <c r="U33" s="34">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="34" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E34" s="36">
+      <c r="V33" s="34">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="D34" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="34">
         <v>0.48</v>
       </c>
-      <c r="F34" s="36">
+      <c r="F34" s="34">
         <v>0.28999999999999998</v>
       </c>
-      <c r="G34" s="36">
+      <c r="G34" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="H34" s="43">
+      <c r="H34" s="40">
         <v>-0.36</v>
       </c>
-      <c r="I34" s="43">
+      <c r="I34" s="40">
         <v>-0.11</v>
       </c>
-      <c r="J34" s="43">
+      <c r="J34" s="40">
         <v>0.1</v>
       </c>
-      <c r="K34" s="43">
-        <v>0</v>
-      </c>
-      <c r="L34" s="43">
+      <c r="K34" s="40">
+        <v>0</v>
+      </c>
+      <c r="L34" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="M34" s="43">
+      <c r="M34" s="40">
         <v>-0.05</v>
       </c>
-      <c r="N34" s="43">
-        <v>0</v>
-      </c>
-      <c r="O34" s="36">
+      <c r="N34" s="40">
+        <v>0</v>
+      </c>
+      <c r="O34" s="34">
         <v>-0.02</v>
       </c>
-      <c r="P34" s="36">
+      <c r="P34" s="34">
         <v>0.16</v>
       </c>
-      <c r="Q34" s="36">
+      <c r="Q34" s="34">
         <v>0.43</v>
       </c>
-      <c r="R34" s="36">
+      <c r="R34" s="34">
         <v>0.63</v>
       </c>
-      <c r="S34" s="36">
+      <c r="S34" s="34">
         <v>7</v>
       </c>
-      <c r="T34" s="36">
+      <c r="T34" s="34">
         <v>0.56000000000000005</v>
       </c>
-      <c r="U34" s="36">
+      <c r="U34" s="34">
         <v>0.46</v>
       </c>
-    </row>
-    <row r="35" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="D35" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E35" s="41" t="s">
-        <v>162</v>
-      </c>
-      <c r="F35" s="36">
+      <c r="V34" s="34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E35" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="34">
         <v>8.6</v>
       </c>
-      <c r="G35" s="36">
+      <c r="G35" s="34">
         <v>3.04</v>
       </c>
-      <c r="H35" s="43">
+      <c r="H35" s="40">
         <v>-0.39</v>
       </c>
-      <c r="I35" s="43">
+      <c r="I35" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="J35" s="43">
+      <c r="J35" s="40">
         <v>-0.12</v>
       </c>
-      <c r="K35" s="43">
+      <c r="K35" s="40">
         <v>-0.24</v>
       </c>
-      <c r="L35" s="43">
+      <c r="L35" s="40">
         <v>-0.01</v>
       </c>
-      <c r="M35" s="43">
+      <c r="M35" s="40">
         <v>-0.18</v>
       </c>
-      <c r="N35" s="43">
+      <c r="N35" s="40">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="O35" s="36">
+      <c r="O35" s="34">
         <v>0.1</v>
       </c>
-      <c r="P35" s="36">
+      <c r="P35" s="34">
         <v>2.3199999999999998</v>
       </c>
-      <c r="Q35" s="36">
+      <c r="Q35" s="34">
         <v>1.61</v>
       </c>
-      <c r="R35" s="36">
+      <c r="R35" s="34">
         <v>1.65</v>
       </c>
-      <c r="S35" s="36">
+      <c r="S35" s="34">
         <v>0.83</v>
       </c>
-      <c r="T35" s="36">
+      <c r="T35" s="34">
         <v>1</v>
       </c>
-      <c r="U35" s="36">
+      <c r="U35" s="34">
         <v>0.98</v>
       </c>
-    </row>
-    <row r="36" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="36" t="s">
-        <v>154</v>
-      </c>
-      <c r="D36" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E36" s="36">
+      <c r="V35" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="34">
         <v>-0.26</v>
       </c>
-      <c r="F36" s="36">
+      <c r="F36" s="34">
         <v>-0.27</v>
       </c>
-      <c r="G36" s="36">
+      <c r="G36" s="34">
         <v>-0.35</v>
       </c>
-      <c r="H36" s="43">
+      <c r="H36" s="40">
         <v>-0.73</v>
       </c>
-      <c r="I36" s="43">
+      <c r="I36" s="40">
         <v>-0.19</v>
       </c>
-      <c r="J36" s="43">
+      <c r="J36" s="40">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="K36" s="43">
+      <c r="K36" s="40">
         <v>-0.32</v>
       </c>
-      <c r="L36" s="43">
+      <c r="L36" s="40">
         <v>0.28999999999999998</v>
       </c>
-      <c r="M36" s="43">
+      <c r="M36" s="40">
         <v>-7.0000000000000007E-2</v>
       </c>
-      <c r="N36" s="43">
+      <c r="N36" s="40">
         <v>-0.13</v>
       </c>
-      <c r="O36" s="36">
+      <c r="O36" s="34">
         <v>0.19</v>
       </c>
-      <c r="P36" s="36">
+      <c r="P36" s="34">
         <v>0.44</v>
       </c>
-      <c r="Q36" s="36">
+      <c r="Q36" s="34">
         <v>0.6</v>
       </c>
-      <c r="R36" s="36">
+      <c r="R36" s="34">
         <v>0.37</v>
       </c>
-      <c r="S36" s="36">
+      <c r="S36" s="34">
         <v>1.44</v>
       </c>
-      <c r="T36" s="36">
+      <c r="T36" s="34">
         <v>0.44</v>
       </c>
-      <c r="U36" s="36">
+      <c r="U36" s="34">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="37" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="36" t="s">
-        <v>155</v>
-      </c>
-      <c r="D37" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F37" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I37" s="36">
+      <c r="V36" s="34">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I37" s="34">
         <v>0.35</v>
       </c>
-      <c r="J37" s="36">
+      <c r="J37" s="34">
         <v>0.73</v>
       </c>
-      <c r="K37" s="36">
+      <c r="K37" s="34">
         <v>0.3</v>
       </c>
-      <c r="L37" s="36">
+      <c r="L37" s="34">
         <v>0.25</v>
       </c>
-      <c r="M37" s="36">
+      <c r="M37" s="34">
         <v>0.13</v>
       </c>
-      <c r="N37" s="36">
+      <c r="N37" s="34">
         <v>0.96</v>
       </c>
-      <c r="O37" s="36">
+      <c r="O37" s="34">
         <v>0.41</v>
       </c>
-      <c r="P37" s="36">
+      <c r="P37" s="34">
         <v>0.22</v>
       </c>
-      <c r="Q37" s="36">
+      <c r="Q37" s="34">
         <v>0.22</v>
       </c>
-      <c r="R37" s="36">
+      <c r="R37" s="34">
         <v>0.09</v>
       </c>
-      <c r="S37" s="36">
+      <c r="S37" s="34">
         <v>0.25</v>
       </c>
-      <c r="T37" s="36">
+      <c r="T37" s="34">
         <v>0.14000000000000001</v>
       </c>
-      <c r="U37" s="36">
+      <c r="U37" s="34">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="38" spans="1:21" s="36" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="D38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="M38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="N38" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="O38" s="36">
+      <c r="V37" s="34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="34" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N38" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O38" s="34">
         <v>0.3</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="34">
         <v>0.35</v>
       </c>
-      <c r="Q38" s="36">
+      <c r="Q38" s="34">
         <v>0.19</v>
       </c>
-      <c r="R38" s="36">
+      <c r="R38" s="34">
         <v>0.42</v>
       </c>
-      <c r="S38" s="36">
+      <c r="S38" s="34">
         <v>0.31</v>
       </c>
-      <c r="T38" s="36">
+      <c r="T38" s="34">
         <v>0.54</v>
       </c>
-      <c r="U38" s="36">
+      <c r="U38" s="34">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="39" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="35"/>
-    </row>
-    <row r="40" spans="1:21" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="V38" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="33"/>
+    </row>
+    <row r="40" spans="1:22" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="P41" s="1">
         <v>4200</v>
@@ -3591,32 +3540,32 @@
         <v>19000</v>
       </c>
     </row>
-    <row r="42" spans="1:21" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="36" t="s">
-        <v>134</v>
-      </c>
-      <c r="P42" s="36">
+    <row r="42" spans="1:22" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="P42" s="34">
         <v>10</v>
       </c>
-      <c r="Q42" s="36">
+      <c r="Q42" s="34">
         <v>10</v>
       </c>
-      <c r="R42" s="36">
+      <c r="R42" s="34">
         <v>8</v>
       </c>
-      <c r="S42" s="36">
+      <c r="S42" s="34">
         <v>6</v>
       </c>
-      <c r="T42" s="36">
+      <c r="T42" s="34">
         <v>2</v>
       </c>
-      <c r="U42" s="36">
+      <c r="U42" s="34">
         <v>1.18</v>
       </c>
     </row>
-    <row r="43" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B43" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="P43" s="1">
         <v>19000</v>
@@ -3637,32 +3586,32 @@
         <v>32700</v>
       </c>
     </row>
-    <row r="44" spans="1:21" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="36" t="s">
-        <v>136</v>
-      </c>
-      <c r="P44" s="36">
+    <row r="44" spans="1:22" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="P44" s="34">
         <v>1.1299999999999999</v>
       </c>
-      <c r="Q44" s="36">
+      <c r="Q44" s="34">
         <v>0.76</v>
       </c>
-      <c r="R44" s="36">
+      <c r="R44" s="34">
         <v>0.8</v>
       </c>
-      <c r="S44" s="36">
+      <c r="S44" s="34">
         <v>0.59</v>
       </c>
-      <c r="T44" s="36">
+      <c r="T44" s="34">
         <v>0.48</v>
       </c>
-      <c r="U44" s="36">
+      <c r="U44" s="34">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="45" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="P45" s="1">
         <v>4100</v>
@@ -3683,32 +3632,32 @@
         <v>9500</v>
       </c>
     </row>
-    <row r="46" spans="1:21" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="P46" s="36">
+    <row r="46" spans="1:22" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="P46" s="34">
         <v>0.32</v>
       </c>
-      <c r="Q46" s="36">
+      <c r="Q46" s="34">
         <v>0.52</v>
       </c>
-      <c r="R46" s="36">
+      <c r="R46" s="34">
         <v>0.53</v>
       </c>
-      <c r="S46" s="36">
+      <c r="S46" s="34">
         <v>1.26</v>
       </c>
-      <c r="T46" s="36">
+      <c r="T46" s="34">
         <v>1.1499999999999999</v>
       </c>
-      <c r="U46" s="36">
+      <c r="U46" s="34">
         <v>0.9</v>
       </c>
     </row>
-    <row r="47" spans="1:21" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:22" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="P47" s="1">
         <v>225000</v>
@@ -3729,32 +3678,32 @@
         <v>517000</v>
       </c>
     </row>
-    <row r="48" spans="1:21" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="P48" s="36">
+    <row r="48" spans="1:22" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="P48" s="34">
         <v>0.4</v>
       </c>
-      <c r="Q48" s="36">
+      <c r="Q48" s="34">
         <v>0.56999999999999995</v>
       </c>
-      <c r="R48" s="36">
+      <c r="R48" s="34">
         <v>0.65</v>
       </c>
-      <c r="S48" s="36">
+      <c r="S48" s="34">
         <v>1.54</v>
       </c>
-      <c r="T48" s="36">
+      <c r="T48" s="34">
         <v>0.84</v>
       </c>
-      <c r="U48" s="36">
+      <c r="U48" s="34">
         <v>1.1200000000000001</v>
       </c>
     </row>
     <row r="49" spans="2:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B49" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="P49" s="1">
         <v>343.6</v>
@@ -3775,32 +3724,32 @@
         <v>515</v>
       </c>
     </row>
-    <row r="50" spans="2:30" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="P50" s="36">
+    <row r="50" spans="2:30" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" s="34">
         <v>0.26</v>
       </c>
-      <c r="Q50" s="36">
+      <c r="Q50" s="34">
         <v>0.38</v>
       </c>
-      <c r="R50" s="36">
+      <c r="R50" s="34">
         <v>0.47</v>
       </c>
-      <c r="S50" s="36">
+      <c r="S50" s="34">
         <v>0.61</v>
       </c>
-      <c r="T50" s="36">
+      <c r="T50" s="34">
         <v>0.46</v>
       </c>
-      <c r="U50" s="36">
+      <c r="U50" s="34">
         <v>0.32</v>
       </c>
     </row>
     <row r="51" spans="2:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="P51" s="1">
         <v>36000</v>
@@ -3821,145 +3770,145 @@
         <v>28000</v>
       </c>
     </row>
-    <row r="52" spans="2:30" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="36" t="s">
-        <v>144</v>
-      </c>
-      <c r="P52" s="36">
+    <row r="52" spans="2:30" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="P52" s="34">
         <v>2.2400000000000002</v>
       </c>
-      <c r="Q52" s="36">
+      <c r="Q52" s="34">
         <v>1.37</v>
       </c>
-      <c r="R52" s="36">
+      <c r="R52" s="34">
         <v>1.1200000000000001</v>
       </c>
-      <c r="S52" s="36">
+      <c r="S52" s="34">
         <v>4</v>
       </c>
-      <c r="T52" s="36">
+      <c r="T52" s="34">
         <v>0.46</v>
       </c>
-      <c r="U52" s="36">
+      <c r="U52" s="34">
         <v>0.32</v>
       </c>
     </row>
     <row r="53" spans="2:30" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="B53" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="O53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="R53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="T53" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U53" s="1">
         <v>7000</v>
       </c>
     </row>
-    <row r="54" spans="2:30" s="36" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="D54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="E54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="F54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="H54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="I54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="J54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="K54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="L54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="M54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="N54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="O54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="P54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="R54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="S54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="T54" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="U54" s="36" t="s">
-        <v>43</v>
+    <row r="54" spans="2:30" s="34" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="D54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="F54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="G54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="H54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="L54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="M54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="N54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="O54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="R54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="S54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="T54" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="U54" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="55" spans="2:30" collapsed="1" x14ac:dyDescent="0.2"/>
@@ -4010,75 +3959,75 @@
         <v>12</v>
       </c>
       <c r="D59" s="8">
-        <f t="shared" ref="D59:U59" si="5">D57-D58</f>
+        <f t="shared" ref="D59:U59" si="7">D57-D58</f>
         <v>0</v>
       </c>
       <c r="E59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="H59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="N59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="O59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U59" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V59" s="8">
@@ -4105,63 +4054,63 @@
         <v>34</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" ref="H61" si="6">IF(D59=0,IF(H59=0,0,NA()),(H59-D59)/ABS(D59))</f>
+        <f t="shared" ref="H61" si="8">IF(D59=0,IF(H59=0,0,NA()),(H59-D59)/ABS(D59))</f>
         <v>0</v>
       </c>
       <c r="I61" s="6">
-        <f t="shared" ref="I61" si="7">IF(E59=0,IF(I59=0,0,NA()),(I59-E59)/ABS(E59))</f>
+        <f t="shared" ref="I61" si="9">IF(E59=0,IF(I59=0,0,NA()),(I59-E59)/ABS(E59))</f>
         <v>0</v>
       </c>
       <c r="J61" s="6">
-        <f t="shared" ref="J61" si="8">IF(F59=0,IF(J59=0,0,NA()),(J59-F59)/ABS(F59))</f>
+        <f t="shared" ref="J61" si="10">IF(F59=0,IF(J59=0,0,NA()),(J59-F59)/ABS(F59))</f>
         <v>0</v>
       </c>
       <c r="K61" s="6">
-        <f t="shared" ref="K61" si="9">IF(G59=0,IF(K59=0,0,NA()),(K59-G59)/ABS(G59))</f>
+        <f t="shared" ref="K61" si="11">IF(G59=0,IF(K59=0,0,NA()),(K59-G59)/ABS(G59))</f>
         <v>0</v>
       </c>
       <c r="L61" s="6">
-        <f t="shared" ref="L61:S61" si="10">IF(H59=0,IF(L59=0,0,NA()),(L59-H59)/ABS(H59))</f>
+        <f t="shared" ref="L61:S61" si="12">IF(H59=0,IF(L59=0,0,NA()),(L59-H59)/ABS(H59))</f>
         <v>0</v>
       </c>
       <c r="M61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S61" s="6">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T61" s="6">
@@ -4256,54 +4205,54 @@
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
       <c r="G69" s="12"/>
-      <c r="H69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="I69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="J69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="K69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="L69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="M69" s="42" t="s">
-        <v>163</v>
-      </c>
-      <c r="N69" s="42" t="s">
-        <v>163</v>
+      <c r="H69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="J69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="K69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="L69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="M69" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="N69" s="39" t="s">
+        <v>113</v>
       </c>
       <c r="O69" s="12"/>
       <c r="P69" s="12"/>
       <c r="Q69" s="12"/>
       <c r="R69" s="12" t="s">
-        <v>161</v>
+        <v>111</v>
       </c>
       <c r="S69" s="12" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="T69" s="1" t="s">
-        <v>157</v>
+        <v>107</v>
       </c>
       <c r="U69" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
     </row>
     <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B70" s="15"/>
-      <c r="H70" s="42" t="s">
-        <v>164</v>
-      </c>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
+      <c r="H70" s="39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I70" s="39"/>
+      <c r="J70" s="39"/>
+      <c r="K70" s="39"/>
+      <c r="L70" s="39"/>
       <c r="U70" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
     </row>
     <row r="71" spans="2:30" x14ac:dyDescent="0.2">
@@ -4324,13 +4273,13 @@
       <c r="Q71" s="28"/>
       <c r="S71" s="9"/>
       <c r="U71" s="1" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
     </row>
     <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B72" s="15"/>
       <c r="U72" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
     </row>
     <row r="73" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25">
@@ -4353,7 +4302,7 @@
       <c r="R73" s="19"/>
       <c r="S73" s="19"/>
       <c r="U73" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
     </row>
     <row r="74" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
@@ -4412,313 +4361,313 @@
     </row>
     <row r="83" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="15"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="33"/>
-      <c r="E83" s="33"/>
-      <c r="F83" s="33"/>
-      <c r="G83" s="33"/>
-      <c r="H83" s="33"/>
-      <c r="I83" s="33"/>
-      <c r="J83" s="33"/>
-      <c r="K83" s="33"/>
-      <c r="L83" s="33"/>
-      <c r="M83" s="33"/>
-      <c r="N83" s="33"/>
-      <c r="O83" s="33"/>
-      <c r="P83" s="33"/>
-      <c r="Q83" s="33"/>
-      <c r="R83" s="33"/>
-      <c r="S83" s="33"/>
-      <c r="T83" s="33"/>
-      <c r="U83" s="33"/>
-      <c r="V83" s="33"/>
-      <c r="W83" s="33"/>
-      <c r="X83" s="33"/>
-      <c r="Y83" s="33"/>
-      <c r="Z83" s="33"/>
-      <c r="AA83" s="33"/>
-      <c r="AB83" s="33"/>
-      <c r="AC83" s="33"/>
-      <c r="AD83" s="34"/>
+      <c r="C83" s="41"/>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+      <c r="F83" s="41"/>
+      <c r="G83" s="41"/>
+      <c r="H83" s="41"/>
+      <c r="I83" s="41"/>
+      <c r="J83" s="41"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
+      <c r="M83" s="41"/>
+      <c r="N83" s="41"/>
+      <c r="O83" s="41"/>
+      <c r="P83" s="41"/>
+      <c r="Q83" s="41"/>
+      <c r="R83" s="41"/>
+      <c r="S83" s="41"/>
+      <c r="T83" s="41"/>
+      <c r="U83" s="41"/>
+      <c r="V83" s="41"/>
+      <c r="W83" s="41"/>
+      <c r="X83" s="41"/>
+      <c r="Y83" s="41"/>
+      <c r="Z83" s="41"/>
+      <c r="AA83" s="41"/>
+      <c r="AB83" s="41"/>
+      <c r="AC83" s="41"/>
+      <c r="AD83" s="42"/>
     </row>
     <row r="84" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="15"/>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-      <c r="G84" s="33"/>
-      <c r="H84" s="33"/>
-      <c r="I84" s="33"/>
-      <c r="J84" s="33"/>
-      <c r="K84" s="33"/>
-      <c r="L84" s="33"/>
-      <c r="M84" s="33"/>
-      <c r="N84" s="33"/>
-      <c r="O84" s="33"/>
-      <c r="P84" s="33"/>
-      <c r="Q84" s="33"/>
-      <c r="R84" s="33"/>
-      <c r="S84" s="33"/>
-      <c r="T84" s="33"/>
-      <c r="U84" s="33"/>
-      <c r="V84" s="33"/>
-      <c r="W84" s="33"/>
-      <c r="X84" s="33"/>
-      <c r="Y84" s="33"/>
-      <c r="Z84" s="33"/>
-      <c r="AA84" s="33"/>
-      <c r="AB84" s="33"/>
-      <c r="AC84" s="33"/>
-      <c r="AD84" s="34"/>
+      <c r="C84" s="41"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+      <c r="F84" s="41"/>
+      <c r="G84" s="41"/>
+      <c r="H84" s="41"/>
+      <c r="I84" s="41"/>
+      <c r="J84" s="41"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
+      <c r="M84" s="41"/>
+      <c r="N84" s="41"/>
+      <c r="O84" s="41"/>
+      <c r="P84" s="41"/>
+      <c r="Q84" s="41"/>
+      <c r="R84" s="41"/>
+      <c r="S84" s="41"/>
+      <c r="T84" s="41"/>
+      <c r="U84" s="41"/>
+      <c r="V84" s="41"/>
+      <c r="W84" s="41"/>
+      <c r="X84" s="41"/>
+      <c r="Y84" s="41"/>
+      <c r="Z84" s="41"/>
+      <c r="AA84" s="41"/>
+      <c r="AB84" s="41"/>
+      <c r="AC84" s="41"/>
+      <c r="AD84" s="42"/>
     </row>
     <row r="85" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="15"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="33"/>
-      <c r="E85" s="33"/>
-      <c r="F85" s="33"/>
-      <c r="G85" s="33"/>
-      <c r="H85" s="33"/>
-      <c r="I85" s="33"/>
-      <c r="J85" s="33"/>
-      <c r="K85" s="33"/>
-      <c r="L85" s="33"/>
-      <c r="M85" s="33"/>
-      <c r="N85" s="33"/>
-      <c r="O85" s="33"/>
-      <c r="P85" s="33"/>
-      <c r="Q85" s="33"/>
-      <c r="R85" s="33"/>
-      <c r="S85" s="33"/>
-      <c r="T85" s="33"/>
-      <c r="U85" s="33"/>
-      <c r="V85" s="33"/>
-      <c r="W85" s="33"/>
-      <c r="X85" s="33"/>
-      <c r="Y85" s="33"/>
-      <c r="Z85" s="33"/>
-      <c r="AA85" s="33"/>
-      <c r="AB85" s="33"/>
-      <c r="AC85" s="33"/>
-      <c r="AD85" s="34"/>
+      <c r="C85" s="41"/>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+      <c r="F85" s="41"/>
+      <c r="G85" s="41"/>
+      <c r="H85" s="41"/>
+      <c r="I85" s="41"/>
+      <c r="J85" s="41"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
+      <c r="M85" s="41"/>
+      <c r="N85" s="41"/>
+      <c r="O85" s="41"/>
+      <c r="P85" s="41"/>
+      <c r="Q85" s="41"/>
+      <c r="R85" s="41"/>
+      <c r="S85" s="41"/>
+      <c r="T85" s="41"/>
+      <c r="U85" s="41"/>
+      <c r="V85" s="41"/>
+      <c r="W85" s="41"/>
+      <c r="X85" s="41"/>
+      <c r="Y85" s="41"/>
+      <c r="Z85" s="41"/>
+      <c r="AA85" s="41"/>
+      <c r="AB85" s="41"/>
+      <c r="AC85" s="41"/>
+      <c r="AD85" s="42"/>
     </row>
     <row r="86" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="15"/>
-      <c r="C86" s="33"/>
-      <c r="D86" s="33"/>
-      <c r="E86" s="33"/>
-      <c r="F86" s="33"/>
-      <c r="G86" s="33"/>
-      <c r="H86" s="33"/>
-      <c r="I86" s="33"/>
-      <c r="J86" s="33"/>
-      <c r="K86" s="33"/>
-      <c r="L86" s="33"/>
-      <c r="M86" s="33"/>
-      <c r="N86" s="33"/>
-      <c r="O86" s="33"/>
-      <c r="P86" s="33"/>
-      <c r="Q86" s="33"/>
-      <c r="R86" s="33"/>
-      <c r="S86" s="33"/>
-      <c r="T86" s="33"/>
-      <c r="U86" s="33"/>
-      <c r="V86" s="33"/>
-      <c r="W86" s="33"/>
-      <c r="X86" s="33"/>
-      <c r="Y86" s="33"/>
-      <c r="Z86" s="33"/>
-      <c r="AA86" s="33"/>
-      <c r="AB86" s="33"/>
-      <c r="AC86" s="33"/>
-      <c r="AD86" s="34"/>
+      <c r="C86" s="41"/>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+      <c r="F86" s="41"/>
+      <c r="G86" s="41"/>
+      <c r="H86" s="41"/>
+      <c r="I86" s="41"/>
+      <c r="J86" s="41"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
+      <c r="M86" s="41"/>
+      <c r="N86" s="41"/>
+      <c r="O86" s="41"/>
+      <c r="P86" s="41"/>
+      <c r="Q86" s="41"/>
+      <c r="R86" s="41"/>
+      <c r="S86" s="41"/>
+      <c r="T86" s="41"/>
+      <c r="U86" s="41"/>
+      <c r="V86" s="41"/>
+      <c r="W86" s="41"/>
+      <c r="X86" s="41"/>
+      <c r="Y86" s="41"/>
+      <c r="Z86" s="41"/>
+      <c r="AA86" s="41"/>
+      <c r="AB86" s="41"/>
+      <c r="AC86" s="41"/>
+      <c r="AD86" s="42"/>
     </row>
     <row r="87" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="15"/>
-      <c r="C87" s="33"/>
-      <c r="D87" s="33"/>
-      <c r="E87" s="33"/>
-      <c r="F87" s="33"/>
-      <c r="G87" s="33"/>
-      <c r="H87" s="33"/>
-      <c r="I87" s="33"/>
-      <c r="J87" s="33"/>
-      <c r="K87" s="33"/>
-      <c r="L87" s="33"/>
-      <c r="M87" s="33"/>
-      <c r="N87" s="33"/>
-      <c r="O87" s="33"/>
-      <c r="P87" s="33"/>
-      <c r="Q87" s="33"/>
-      <c r="R87" s="33"/>
-      <c r="S87" s="33"/>
-      <c r="T87" s="33"/>
-      <c r="U87" s="33"/>
-      <c r="V87" s="33"/>
-      <c r="W87" s="33"/>
-      <c r="X87" s="33"/>
-      <c r="Y87" s="33"/>
-      <c r="Z87" s="33"/>
-      <c r="AA87" s="33"/>
-      <c r="AB87" s="33"/>
-      <c r="AC87" s="33"/>
-      <c r="AD87" s="34"/>
+      <c r="C87" s="41"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+      <c r="F87" s="41"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="41"/>
+      <c r="I87" s="41"/>
+      <c r="J87" s="41"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
+      <c r="M87" s="41"/>
+      <c r="N87" s="41"/>
+      <c r="O87" s="41"/>
+      <c r="P87" s="41"/>
+      <c r="Q87" s="41"/>
+      <c r="R87" s="41"/>
+      <c r="S87" s="41"/>
+      <c r="T87" s="41"/>
+      <c r="U87" s="41"/>
+      <c r="V87" s="41"/>
+      <c r="W87" s="41"/>
+      <c r="X87" s="41"/>
+      <c r="Y87" s="41"/>
+      <c r="Z87" s="41"/>
+      <c r="AA87" s="41"/>
+      <c r="AB87" s="41"/>
+      <c r="AC87" s="41"/>
+      <c r="AD87" s="42"/>
     </row>
     <row r="88" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="15"/>
-      <c r="C88" s="33"/>
-      <c r="D88" s="33"/>
-      <c r="E88" s="33"/>
-      <c r="F88" s="33"/>
-      <c r="G88" s="33"/>
-      <c r="H88" s="33"/>
-      <c r="I88" s="33"/>
-      <c r="J88" s="33"/>
-      <c r="K88" s="33"/>
-      <c r="L88" s="33"/>
-      <c r="M88" s="33"/>
-      <c r="N88" s="33"/>
-      <c r="O88" s="33"/>
-      <c r="P88" s="33"/>
-      <c r="Q88" s="33"/>
-      <c r="R88" s="33"/>
-      <c r="S88" s="33"/>
-      <c r="T88" s="33"/>
-      <c r="U88" s="33"/>
-      <c r="V88" s="33"/>
-      <c r="W88" s="33"/>
-      <c r="X88" s="33"/>
-      <c r="Y88" s="33"/>
-      <c r="Z88" s="33"/>
-      <c r="AA88" s="33"/>
-      <c r="AB88" s="33"/>
-      <c r="AC88" s="33"/>
-      <c r="AD88" s="34"/>
+      <c r="C88" s="41"/>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+      <c r="F88" s="41"/>
+      <c r="G88" s="41"/>
+      <c r="H88" s="41"/>
+      <c r="I88" s="41"/>
+      <c r="J88" s="41"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
+      <c r="M88" s="41"/>
+      <c r="N88" s="41"/>
+      <c r="O88" s="41"/>
+      <c r="P88" s="41"/>
+      <c r="Q88" s="41"/>
+      <c r="R88" s="41"/>
+      <c r="S88" s="41"/>
+      <c r="T88" s="41"/>
+      <c r="U88" s="41"/>
+      <c r="V88" s="41"/>
+      <c r="W88" s="41"/>
+      <c r="X88" s="41"/>
+      <c r="Y88" s="41"/>
+      <c r="Z88" s="41"/>
+      <c r="AA88" s="41"/>
+      <c r="AB88" s="41"/>
+      <c r="AC88" s="41"/>
+      <c r="AD88" s="42"/>
     </row>
     <row r="89" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="15"/>
-      <c r="C89" s="33"/>
-      <c r="D89" s="33"/>
-      <c r="E89" s="33"/>
-      <c r="F89" s="33"/>
-      <c r="G89" s="33"/>
-      <c r="H89" s="33"/>
-      <c r="I89" s="33"/>
-      <c r="J89" s="33"/>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33"/>
-      <c r="M89" s="33"/>
-      <c r="N89" s="33"/>
-      <c r="O89" s="33"/>
-      <c r="P89" s="33"/>
-      <c r="Q89" s="33"/>
-      <c r="R89" s="33"/>
-      <c r="S89" s="33"/>
-      <c r="T89" s="33"/>
-      <c r="U89" s="33"/>
-      <c r="V89" s="33"/>
-      <c r="W89" s="33"/>
-      <c r="X89" s="33"/>
-      <c r="Y89" s="33"/>
-      <c r="Z89" s="33"/>
-      <c r="AA89" s="33"/>
-      <c r="AB89" s="33"/>
-      <c r="AC89" s="33"/>
-      <c r="AD89" s="34"/>
+      <c r="C89" s="41"/>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+      <c r="F89" s="41"/>
+      <c r="G89" s="41"/>
+      <c r="H89" s="41"/>
+      <c r="I89" s="41"/>
+      <c r="J89" s="41"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
+      <c r="M89" s="41"/>
+      <c r="N89" s="41"/>
+      <c r="O89" s="41"/>
+      <c r="P89" s="41"/>
+      <c r="Q89" s="41"/>
+      <c r="R89" s="41"/>
+      <c r="S89" s="41"/>
+      <c r="T89" s="41"/>
+      <c r="U89" s="41"/>
+      <c r="V89" s="41"/>
+      <c r="W89" s="41"/>
+      <c r="X89" s="41"/>
+      <c r="Y89" s="41"/>
+      <c r="Z89" s="41"/>
+      <c r="AA89" s="41"/>
+      <c r="AB89" s="41"/>
+      <c r="AC89" s="41"/>
+      <c r="AD89" s="42"/>
     </row>
     <row r="90" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="15"/>
-      <c r="C90" s="33"/>
-      <c r="D90" s="33"/>
-      <c r="E90" s="33"/>
-      <c r="F90" s="33"/>
-      <c r="G90" s="33"/>
-      <c r="H90" s="33"/>
-      <c r="I90" s="33"/>
-      <c r="J90" s="33"/>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33"/>
-      <c r="M90" s="33"/>
-      <c r="N90" s="33"/>
-      <c r="O90" s="33"/>
-      <c r="P90" s="33"/>
-      <c r="Q90" s="33"/>
-      <c r="R90" s="33"/>
-      <c r="S90" s="33"/>
-      <c r="T90" s="33"/>
-      <c r="U90" s="33"/>
-      <c r="V90" s="33"/>
-      <c r="W90" s="33"/>
-      <c r="X90" s="33"/>
-      <c r="Y90" s="33"/>
-      <c r="Z90" s="33"/>
-      <c r="AA90" s="33"/>
-      <c r="AB90" s="33"/>
-      <c r="AC90" s="33"/>
-      <c r="AD90" s="34"/>
+      <c r="C90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+      <c r="F90" s="41"/>
+      <c r="G90" s="41"/>
+      <c r="H90" s="41"/>
+      <c r="I90" s="41"/>
+      <c r="J90" s="41"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
+      <c r="M90" s="41"/>
+      <c r="N90" s="41"/>
+      <c r="O90" s="41"/>
+      <c r="P90" s="41"/>
+      <c r="Q90" s="41"/>
+      <c r="R90" s="41"/>
+      <c r="S90" s="41"/>
+      <c r="T90" s="41"/>
+      <c r="U90" s="41"/>
+      <c r="V90" s="41"/>
+      <c r="W90" s="41"/>
+      <c r="X90" s="41"/>
+      <c r="Y90" s="41"/>
+      <c r="Z90" s="41"/>
+      <c r="AA90" s="41"/>
+      <c r="AB90" s="41"/>
+      <c r="AC90" s="41"/>
+      <c r="AD90" s="42"/>
     </row>
     <row r="91" spans="2:30" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="15"/>
-      <c r="C91" s="33"/>
-      <c r="D91" s="33"/>
-      <c r="E91" s="33"/>
-      <c r="F91" s="33"/>
-      <c r="G91" s="33"/>
-      <c r="H91" s="33"/>
-      <c r="I91" s="33"/>
-      <c r="J91" s="33"/>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33"/>
-      <c r="M91" s="33"/>
-      <c r="N91" s="33"/>
-      <c r="O91" s="33"/>
-      <c r="P91" s="33"/>
-      <c r="Q91" s="33"/>
-      <c r="R91" s="33"/>
-      <c r="S91" s="33"/>
-      <c r="T91" s="33"/>
-      <c r="U91" s="33"/>
-      <c r="V91" s="33"/>
-      <c r="W91" s="33"/>
-      <c r="X91" s="33"/>
-      <c r="Y91" s="33"/>
-      <c r="Z91" s="33"/>
-      <c r="AA91" s="33"/>
-      <c r="AB91" s="33"/>
-      <c r="AC91" s="33"/>
-      <c r="AD91" s="34"/>
+      <c r="C91" s="41"/>
+      <c r="D91" s="41"/>
+      <c r="E91" s="41"/>
+      <c r="F91" s="41"/>
+      <c r="G91" s="41"/>
+      <c r="H91" s="41"/>
+      <c r="I91" s="41"/>
+      <c r="J91" s="41"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
+      <c r="M91" s="41"/>
+      <c r="N91" s="41"/>
+      <c r="O91" s="41"/>
+      <c r="P91" s="41"/>
+      <c r="Q91" s="41"/>
+      <c r="R91" s="41"/>
+      <c r="S91" s="41"/>
+      <c r="T91" s="41"/>
+      <c r="U91" s="41"/>
+      <c r="V91" s="41"/>
+      <c r="W91" s="41"/>
+      <c r="X91" s="41"/>
+      <c r="Y91" s="41"/>
+      <c r="Z91" s="41"/>
+      <c r="AA91" s="41"/>
+      <c r="AB91" s="41"/>
+      <c r="AC91" s="41"/>
+      <c r="AD91" s="42"/>
     </row>
     <row r="92" spans="2:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B92" s="15"/>
-      <c r="C92" s="33"/>
-      <c r="D92" s="33"/>
-      <c r="E92" s="33"/>
-      <c r="F92" s="33"/>
-      <c r="G92" s="33"/>
-      <c r="H92" s="33"/>
-      <c r="I92" s="33"/>
-      <c r="J92" s="33"/>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33"/>
-      <c r="M92" s="33"/>
-      <c r="N92" s="33"/>
-      <c r="O92" s="33"/>
-      <c r="P92" s="33"/>
-      <c r="Q92" s="33"/>
-      <c r="R92" s="33"/>
-      <c r="S92" s="33"/>
-      <c r="T92" s="33"/>
-      <c r="U92" s="33"/>
-      <c r="V92" s="33"/>
-      <c r="W92" s="33"/>
-      <c r="X92" s="33"/>
-      <c r="Y92" s="33"/>
-      <c r="Z92" s="33"/>
-      <c r="AA92" s="33"/>
-      <c r="AB92" s="33"/>
-      <c r="AC92" s="33"/>
-      <c r="AD92" s="34"/>
+      <c r="C92" s="41"/>
+      <c r="D92" s="41"/>
+      <c r="E92" s="41"/>
+      <c r="F92" s="41"/>
+      <c r="G92" s="41"/>
+      <c r="H92" s="41"/>
+      <c r="I92" s="41"/>
+      <c r="J92" s="41"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
+      <c r="M92" s="41"/>
+      <c r="N92" s="41"/>
+      <c r="O92" s="41"/>
+      <c r="P92" s="41"/>
+      <c r="Q92" s="41"/>
+      <c r="R92" s="41"/>
+      <c r="S92" s="41"/>
+      <c r="T92" s="41"/>
+      <c r="U92" s="41"/>
+      <c r="V92" s="41"/>
+      <c r="W92" s="41"/>
+      <c r="X92" s="41"/>
+      <c r="Y92" s="41"/>
+      <c r="Z92" s="41"/>
+      <c r="AA92" s="41"/>
+      <c r="AB92" s="41"/>
+      <c r="AC92" s="41"/>
+      <c r="AD92" s="42"/>
     </row>
     <row r="93" spans="2:30" ht="15" x14ac:dyDescent="0.25">
       <c r="B93" s="15"/>
@@ -4832,10 +4781,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{531A433F-9AC6-4D79-A331-274DD3CD1599}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4846,29 +4795,29 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1">
         <v>1125</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1">
         <v>2650</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1">
         <v>236</v>
@@ -4876,7 +4825,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1">
         <v>134</v>
@@ -4884,12 +4833,17 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1">
         <v>12640</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="43" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4900,10 +4854,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FD6AACC-FEA2-4C5B-AF79-59D39A66A975}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4923,250 +4877,95 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F1" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>63</v>
-      </c>
+      <c r="A1" s="21"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
     </row>
     <row r="2" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="24">
-        <v>0.39</v>
-      </c>
-      <c r="E2" s="24" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>79</v>
-      </c>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
       <c r="J2" s="22"/>
       <c r="K2" s="22"/>
     </row>
     <row r="3" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>84</v>
-      </c>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
       <c r="J3" s="23"/>
       <c r="K3" s="23"/>
     </row>
     <row r="4" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.43</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>89</v>
-      </c>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
       <c r="J4" s="23"/>
       <c r="K4" s="23"/>
     </row>
     <row r="5" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="24">
-        <v>0.23</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>93</v>
-      </c>
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
       <c r="J5" s="23"/>
       <c r="K5" s="23"/>
     </row>
     <row r="6" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>94</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>96</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>98</v>
-      </c>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" s="32">
-        <v>0.53</v>
-      </c>
-      <c r="E7" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>102</v>
-      </c>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="23"/>
       <c r="K7" s="23"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5174,6 +4973,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C341BEE4C9A91F44BB4A4EF8E0A71E02" ma:contentTypeVersion="4" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db93f7cdcc50be3ddb7642c8d50e9a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="878aac0c-df32-40a9-a231-d93e9c7b9b1a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b63aaf3684aa43c37ed0cc1f5c2cf36e" ns3:_="">
     <xsd:import namespace="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
@@ -5317,22 +5131,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9D266F6-4EBB-4FCE-8CE5-50B9641EB015}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5348,28 +5171,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8A951E8-5D72-42FD-8030-87DD7D8D4010}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4D65B96D-4012-4621-9665-52F685045C2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="878aac0c-df32-40a9-a231-d93e9c7b9b1a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>